--- a/DataExcel/FirstDownloaderAndroid.xlsx
+++ b/DataExcel/FirstDownloaderAndroid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\id star\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nobu\main\Android-Automation\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595F9006-968C-423E-B4D9-A494748D1AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C73DD7-B103-43C1-B430-4EB1F6BAC501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33EFFE3B-1978-CD44-9485-81C4895010F6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>Scenario</t>
   </si>
@@ -124,24 +124,6 @@
     <t>Fakhri2@!#</t>
   </si>
   <si>
-    <t>Fakhri Tester 1</t>
-  </si>
-  <si>
-    <t>Fakhri Tester 2</t>
-  </si>
-  <si>
-    <t>Fakhri Tester 3</t>
-  </si>
-  <si>
-    <t>Fakhri Tester 4</t>
-  </si>
-  <si>
-    <t>Fakhri Tester 5</t>
-  </si>
-  <si>
-    <t>Fakhri Tester 6</t>
-  </si>
-  <si>
     <t>Fakhriaria27@</t>
   </si>
   <si>
@@ -152,6 +134,9 @@
   </si>
   <si>
     <t>Fakhri</t>
+  </si>
+  <si>
+    <t>FakhriTesterOne</t>
   </si>
 </sst>
 </file>
@@ -537,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29CC6BE-2C6B-554E-9BF2-EBDA59FD8B50}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -696,7 +681,7 @@
         <v>999999</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>111111</v>
@@ -722,13 +707,13 @@
         <v>999999</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>111111</v>
       </c>
       <c r="H9">
-        <v>123456</v>
+        <v>111111</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
@@ -754,19 +739,19 @@
         <v>999999</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>111111</v>
       </c>
-      <c r="H10" s="3">
-        <v>123456</v>
+      <c r="H10">
+        <v>111111</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5">
@@ -786,19 +771,19 @@
         <v>999999</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>111111</v>
       </c>
-      <c r="H11" s="3">
-        <v>123456</v>
+      <c r="H11">
+        <v>111111</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5">
@@ -823,14 +808,14 @@
       <c r="G12">
         <v>111111</v>
       </c>
-      <c r="H12" s="3">
-        <v>123456</v>
+      <c r="H12">
+        <v>111111</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5">
@@ -850,19 +835,19 @@
         <v>999999</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>111111</v>
       </c>
-      <c r="H13" s="3">
-        <v>123456</v>
+      <c r="H13">
+        <v>111111</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/DataExcel/FirstDownloaderAndroid.xlsx
+++ b/DataExcel/FirstDownloaderAndroid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nobu\main\Android-Automation\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C73DD7-B103-43C1-B430-4EB1F6BAC501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6B30DB-9EA0-4606-A26A-2A87E6EDAD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33EFFE3B-1978-CD44-9485-81C4895010F6}"/>
   </bookViews>
@@ -112,15 +112,9 @@
     <t>Positive</t>
   </si>
   <si>
-    <t>fakhriaf16@gmail.com</t>
-  </si>
-  <si>
     <t>fakhriaf16</t>
   </si>
   <si>
-    <t>terongbaladobalap@gmail.com</t>
-  </si>
-  <si>
     <t>Fakhri2@!#</t>
   </si>
   <si>
@@ -137,6 +131,12 @@
   </si>
   <si>
     <t>FakhriTesterOne</t>
+  </si>
+  <si>
+    <t>Test1newRegister@gmail.com</t>
+  </si>
+  <si>
+    <t>fakhritestingqa@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29CC6BE-2C6B-554E-9BF2-EBDA59FD8B50}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -582,7 +582,7 @@
         <v>8765</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5">
@@ -593,10 +593,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="1">
-        <v>7828613447</v>
+        <v>7885002290</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5">
@@ -607,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>7828613447</v>
+        <v>7885002</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5">
@@ -621,10 +621,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>7828613447</v>
+        <v>7885002290</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5">
@@ -635,10 +635,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>7828613447</v>
+        <v>7885002290</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>888888</v>
@@ -652,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>7828613447</v>
+        <v>7885002290</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3">
         <v>999999</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5">
@@ -672,16 +672,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>7828613447</v>
+        <v>7885002290</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>999999</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>111111</v>
@@ -698,16 +698,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>7828613447</v>
+        <v>7885002290</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>999999</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9">
         <v>111111</v>
@@ -730,16 +730,16 @@
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>7828613447</v>
+        <v>7885002290</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3">
         <v>999999</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>111111</v>
@@ -748,10 +748,10 @@
         <v>111111</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5">
@@ -762,16 +762,16 @@
         <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>7828613447</v>
+        <v>7885002290</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
         <v>999999</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>111111</v>
@@ -780,10 +780,10 @@
         <v>111111</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5">
@@ -794,16 +794,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>7828613447</v>
+        <v>7885002290</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3">
         <v>999999</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>111111</v>
@@ -812,10 +812,10 @@
         <v>111111</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5">
@@ -826,16 +826,16 @@
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>7828613447</v>
+        <v>7885002290</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3">
         <v>999999</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>111111</v>
@@ -844,10 +844,10 @@
         <v>111111</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -856,13 +856,9 @@
     <hyperlink ref="D4" r:id="rId1" xr:uid="{84816E0C-1677-D845-9843-10A5A8A11608}"/>
     <hyperlink ref="D5" r:id="rId2" xr:uid="{32628A2A-78B5-E54E-A2F3-A50E66D06AEB}"/>
     <hyperlink ref="D2" r:id="rId3" xr:uid="{894998A1-77C4-4570-B46E-26B0D25CF323}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{1FDED30F-C306-4FBE-AC53-D3E8527BF8EF}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{95FECAA9-B058-4861-8A67-717966B45310}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{B13A5161-30F3-477D-9503-F9CFDAA302C0}"/>
-    <hyperlink ref="D9:D13" r:id="rId7" display="fakhriaf16@gmail.com" xr:uid="{409F4448-EF7E-4BDF-9E68-40815B4A6E6C}"/>
-    <hyperlink ref="F7" r:id="rId8" xr:uid="{1846188F-60FD-4EA9-8073-35F1AAE8178F}"/>
-    <hyperlink ref="I13" r:id="rId9" xr:uid="{46E03C40-8CF1-4291-823F-0D76527FA7D5}"/>
-    <hyperlink ref="J13" r:id="rId10" xr:uid="{256C2D58-F71E-451D-83E8-D84518E828D8}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{1846188F-60FD-4EA9-8073-35F1AAE8178F}"/>
+    <hyperlink ref="I13" r:id="rId5" xr:uid="{46E03C40-8CF1-4291-823F-0D76527FA7D5}"/>
+    <hyperlink ref="J13" r:id="rId6" xr:uid="{256C2D58-F71E-451D-83E8-D84518E828D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
